--- a/StructureDefinition-vp-population-recommendation-location-extension.xlsx
+++ b/StructureDefinition-vp-population-recommendation-location-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:36:48+00:00</t>
+    <t>2022-08-04T22:42:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-population-recommendation-location-extension.xlsx
+++ b/StructureDefinition-vp-population-recommendation-location-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:42:55+00:00</t>
+    <t>2022-08-10T21:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
